--- a/stress_strain_excel/stress_strain_20210703_2.xlsx
+++ b/stress_strain_excel/stress_strain_20210703_2.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EEDA0D-73D1-734D-9EF9-A3D05449B4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DB105E-2706-4E4E-B7BC-955CA88344E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,6 +206,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$101</c:f>
@@ -838,22 +893,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -914,8 +985,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -963,6 +1078,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1925,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3347,6 +3493,15 @@
         <v>32.970781893004123</v>
       </c>
     </row>
+    <row r="102" spans="1:4">
+      <c r="B102">
+        <v>1371</v>
+      </c>
+      <c r="D102">
+        <f>B102*D101/B101</f>
+        <v>28.209876543209884</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
